--- a/export.xlsx
+++ b/export.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>Tomas Kobezda</t>
+  </si>
   <si>
     <t>rexius41</t>
-  </si>
-  <si>
-    <t>Tomas Kobezda</t>
   </si>
   <si>
     <t>Jakub Varga</t>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,30 +380,46 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>

--- a/export.xlsx
+++ b/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tomas Kobezda</t>
   </si>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,46 +380,30 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
         <v>1</v>
       </c>
     </row>
